--- a/data/trans_camb/P23_11_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_11_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-4,86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
         </is>
       </c>
     </row>
@@ -649,22 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,66; -1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 0,31</t>
+          <t>-15,72; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -0,58</t>
+          <t>-15,72; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,0</t>
+          <t>-16,33; 0,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 0,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; 0,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; 0,0</t>
         </is>
       </c>
     </row>
@@ -687,14 +748,14 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-79,21%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
@@ -702,7 +763,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-81,94%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -743,6 +819,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,55</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 33,08</t>
+          <t>0,0; 47,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 0,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 7,0</t>
+          <t>-7,9; 4,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 0,86</t>
+          <t>-5,07; 12,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 15,58</t>
+          <t>-7,91; 7,36</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 2,36</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 28,89</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 2,97</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>529,67%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-78,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>-42,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-62,27%</t>
+          <t>84,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>110,04%</t>
+          <t>-27,52%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-43,83%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>473,96%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-36,62%</t>
         </is>
       </c>
     </row>
@@ -886,17 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,97; 412,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 224,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,87; 1309,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,45; -1,79</t>
+          <t>-12,89; 1,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,48; -1,06</t>
+          <t>-11,65; 3,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 4,8</t>
+          <t>-11,78; 2,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,86</t>
+          <t>-7,6; 4,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 0,31</t>
+          <t>-5,24; 8,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 0,55</t>
+          <t>-6,8; 6,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 1,54</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 4,37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 2,93</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-91,16%</t>
+          <t>-76,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-83,27%</t>
+          <t>-51,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,92%</t>
+          <t>-57,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>-25,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-56,05%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-47,8%</t>
+          <t>-15,07%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-46,43%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-13,88%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-34,03%</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -16,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,89; 203,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,54; 212,07</t>
+          <t>-88,18; 152,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,68; 19,85</t>
+          <t>-67,7; 371,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-86,48; 19,2</t>
+          <t>-82,9; 264,44</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-86,9; 64,78</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-70,65; 131,34</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-80,99; 118,82</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-5,63</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 4,74</t>
+          <t>-2,64; 9,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,3</t>
+          <t>-2,1; 8,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 8,16</t>
+          <t>-2,56; 8,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 7,95</t>
+          <t>-10,45; 9,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,0</t>
+          <t>-13,25; 4,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 5,09</t>
+          <t>-14,24; 3,26</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 7,17</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 3,3</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 3,57</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>222,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>173,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>188,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>-4,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>-34,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>-38,19%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12,51%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-20,02%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-22,23%</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1449,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 116,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 123,04</t>
+          <t>-53,33; 111,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,99; 111,94</t>
+          <t>-71,13; 45,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 120,67</t>
+          <t>-73,32; 42,33</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-47,89; 134,38</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-61,68; 55,33</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-66,02; 65,66</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,82</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10,83</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,06</t>
+          <t>-2,95; 7,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 19,31</t>
+          <t>0,31; 31,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 13,07</t>
+          <t>3,41; 31,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 6,8</t>
+          <t>-2,55; 13,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,93</t>
+          <t>-2,03; 12,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 11,3</t>
+          <t>0,27; 21,38</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 7,15</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 19,23</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 21,35</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,41%</t>
+          <t>105,01%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>351,51%</t>
+          <t>659,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>175,73%</t>
+          <t>829,27%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>146,58%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>100,66%</t>
+          <t>134,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>158,53%</t>
+          <t>451,77%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>122,79%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>398,27%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>632,26%</t>
         </is>
       </c>
     </row>
@@ -1344,12 +1660,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-72,13; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,39; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1675,27 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,24; 632,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 1072,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-58,1; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>50,73; —</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-7,48</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 8,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 4,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,1; -1,36</t>
+          <t>-10,53; 10,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 1,77</t>
+          <t>-10,4; 10,29</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,46; -0,53</t>
+          <t>-13,68; 3,04</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 5,56</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 5,81</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 3,22</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>143,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-70,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-89,19%</t>
+          <t>-31,45%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-46,86%</t>
+          <t>-31,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-79,53%</t>
+          <t>-53,46%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-28,44%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-27,5%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-48,06%</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 98,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1515,10 +1891,25 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 101,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,21</t>
+          <t>-2,19; 1,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,88</t>
+          <t>0,23; 14,63</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,38</t>
+          <t>-0,65; 4,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 1,05</t>
+          <t>-4,8; 2,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,09</t>
+          <t>-4,49; 2,4</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,82</t>
+          <t>-4,93; 1,91</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 1,2</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 5,68</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,23</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-48,86%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>227,27%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-21,09%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-21,21%</t>
+          <t>-19,41%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-29,47%</t>
+          <t>-15,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>-25,66%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-16,84%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-5,62%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-88,04; 17,78</t>
+          <t>-79,47; 264,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-75,14; 232,13</t>
+          <t>-14,87; 1217,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 28,46</t>
+          <t>-39,56; 571,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 23,69</t>
+          <t>-55,55; 43,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-56,62; 3,66</t>
+          <t>-52,28; 46,19</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 48,55</t>
+          <t>-57,42; 45,98</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-51,36; 34,08</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-27,2; 156,06</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-45,05; 69,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
